--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Fgfr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H2">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I2">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J2">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.4030655</v>
+        <v>0.09215</v>
       </c>
       <c r="N2">
-        <v>0.8061309999999999</v>
+        <v>0.1843</v>
       </c>
       <c r="O2">
-        <v>0.01062191174620465</v>
+        <v>0.01023932159503481</v>
       </c>
       <c r="P2">
-        <v>0.01057308397011603</v>
+        <v>0.01017879497979401</v>
       </c>
       <c r="Q2">
-        <v>5.409089298588333</v>
+        <v>0.12870102105</v>
       </c>
       <c r="R2">
-        <v>32.45453579153</v>
+        <v>0.5148040842</v>
       </c>
       <c r="S2">
-        <v>0.007909510034907226</v>
+        <v>0.000719587085814919</v>
       </c>
       <c r="T2">
-        <v>0.008346635741676742</v>
+        <v>0.0005292822075811018</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H3">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I3">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J3">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.321089</v>
       </c>
       <c r="O3">
-        <v>0.002820533321653764</v>
+        <v>0.01189268776136058</v>
       </c>
       <c r="P3">
-        <v>0.004211351453895939</v>
+        <v>0.01773358166721151</v>
       </c>
       <c r="Q3">
-        <v>1.436324926341111</v>
+        <v>0.149482662861</v>
       </c>
       <c r="R3">
-        <v>12.92692433707</v>
+        <v>0.896895977166</v>
       </c>
       <c r="S3">
-        <v>0.002100284500987496</v>
+        <v>0.0008357804224895156</v>
       </c>
       <c r="T3">
-        <v>0.003324537728556828</v>
+        <v>0.0009221198846989061</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H4">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I4">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J4">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,42 +685,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.1930565</v>
+        <v>8.80044</v>
       </c>
       <c r="N4">
-        <v>74.38611300000001</v>
+        <v>17.60088</v>
       </c>
       <c r="O4">
-        <v>0.9801418472049912</v>
+        <v>0.9778679906436047</v>
       </c>
       <c r="P4">
-        <v>0.9756362414539821</v>
+        <v>0.9720876233529945</v>
       </c>
       <c r="Q4">
-        <v>499.1262310863651</v>
+        <v>12.29110812468</v>
       </c>
       <c r="R4">
-        <v>2994.75738651819</v>
+        <v>49.16443249872</v>
       </c>
       <c r="S4">
-        <v>0.7298537176107146</v>
+        <v>0.0687214647150195</v>
       </c>
       <c r="T4">
-        <v>0.7701896955336107</v>
+        <v>0.05054711134981044</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,57 +732,57 @@
         <v>13.41987666666667</v>
       </c>
       <c r="H5">
-        <v>40.25963</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I5">
-        <v>0.744640910590638</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J5">
-        <v>0.789423007068499</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1809256666666667</v>
+        <v>0.09215</v>
       </c>
       <c r="N5">
-        <v>0.5427770000000001</v>
+        <v>0.1843</v>
       </c>
       <c r="O5">
-        <v>0.004767901157396439</v>
+        <v>0.01023932159503481</v>
       </c>
       <c r="P5">
-        <v>0.0071189754494588</v>
+        <v>0.01017879497979401</v>
       </c>
       <c r="Q5">
-        <v>2.428000132501111</v>
+        <v>1.236641634833333</v>
       </c>
       <c r="R5">
-        <v>21.85200119251</v>
+        <v>7.419849808999999</v>
       </c>
       <c r="S5">
-        <v>0.003550374259449841</v>
+        <v>0.006914252450735436</v>
       </c>
       <c r="T5">
-        <v>0.005619883006558584</v>
+        <v>0.007628522397856563</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,43 +794,43 @@
         <v>13.41987666666667</v>
       </c>
       <c r="H6">
-        <v>40.25963</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I6">
-        <v>0.744640910590638</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J6">
-        <v>0.789423007068499</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.06252866666666666</v>
+        <v>0.1070296666666667</v>
       </c>
       <c r="N6">
-        <v>0.187586</v>
+        <v>0.321089</v>
       </c>
       <c r="O6">
-        <v>0.001647806569754003</v>
+        <v>0.01189268776136058</v>
       </c>
       <c r="P6">
-        <v>0.002460347672547249</v>
+        <v>0.01773358166721151</v>
       </c>
       <c r="Q6">
-        <v>0.8391269947977777</v>
+        <v>1.436324926341111</v>
       </c>
       <c r="R6">
-        <v>7.552142953180001</v>
+        <v>12.92692433707</v>
       </c>
       <c r="S6">
-        <v>0.001227024184578856</v>
+        <v>0.008030712263173055</v>
       </c>
       <c r="T6">
-        <v>0.001942255058096232</v>
+        <v>0.01329047546503183</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H7">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I7">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J7">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,290 +871,290 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4030655</v>
+        <v>8.80044</v>
       </c>
       <c r="N7">
-        <v>0.8061309999999999</v>
+        <v>17.60088</v>
       </c>
       <c r="O7">
-        <v>0.01062191174620465</v>
+        <v>0.9778679906436047</v>
       </c>
       <c r="P7">
-        <v>0.01057308397011603</v>
+        <v>0.9720876233529945</v>
       </c>
       <c r="Q7">
-        <v>0.04712050663266665</v>
+        <v>118.1008194124</v>
       </c>
       <c r="R7">
-        <v>0.2827230397959999</v>
+        <v>708.6049164743999</v>
       </c>
       <c r="S7">
-        <v>6.890256371960006E-05</v>
+        <v>0.6603197377921886</v>
       </c>
       <c r="T7">
-        <v>7.271052170071857E-05</v>
+        <v>0.7285334091263463</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1169053333333333</v>
+        <v>0.306228</v>
       </c>
       <c r="H8">
-        <v>0.350716</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I8">
-        <v>0.006486832631067552</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J8">
-        <v>0.006876945449996328</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.1070296666666667</v>
+        <v>0.09215</v>
       </c>
       <c r="N8">
-        <v>0.321089</v>
+        <v>0.1843</v>
       </c>
       <c r="O8">
-        <v>0.002820533321653764</v>
+        <v>0.01023932159503481</v>
       </c>
       <c r="P8">
-        <v>0.004211351453895939</v>
+        <v>0.01017879497979401</v>
       </c>
       <c r="Q8">
-        <v>0.01251233885822222</v>
+        <v>0.0282189102</v>
       </c>
       <c r="R8">
-        <v>0.112611049724</v>
+        <v>0.1693134612</v>
       </c>
       <c r="S8">
-        <v>1.829632758791699E-05</v>
+        <v>0.0001577762413229191</v>
       </c>
       <c r="T8">
-        <v>2.89612342192051E-05</v>
+        <v>0.0001740751584292369</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1169053333333333</v>
+        <v>0.306228</v>
       </c>
       <c r="H9">
-        <v>0.350716</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I9">
-        <v>0.006486832631067552</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J9">
-        <v>0.006876945449996328</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>37.1930565</v>
+        <v>0.1070296666666667</v>
       </c>
       <c r="N9">
-        <v>74.38611300000001</v>
+        <v>0.321089</v>
       </c>
       <c r="O9">
-        <v>0.9801418472049912</v>
+        <v>0.01189268776136058</v>
       </c>
       <c r="P9">
-        <v>0.9756362414539821</v>
+        <v>0.01773358166721151</v>
       </c>
       <c r="Q9">
-        <v>4.348066667818</v>
+        <v>0.032775480764</v>
       </c>
       <c r="R9">
-        <v>26.088400006908</v>
+        <v>0.294979326876</v>
       </c>
       <c r="S9">
-        <v>0.006358016117524163</v>
+        <v>0.000183252724001211</v>
       </c>
       <c r="T9">
-        <v>0.006709397211518481</v>
+        <v>0.0003032751955772397</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1169053333333333</v>
+        <v>0.306228</v>
       </c>
       <c r="H10">
-        <v>0.350716</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I10">
-        <v>0.006486832631067552</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J10">
-        <v>0.006876945449996328</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1809256666666667</v>
+        <v>8.80044</v>
       </c>
       <c r="N10">
-        <v>0.5427770000000001</v>
+        <v>17.60088</v>
       </c>
       <c r="O10">
-        <v>0.004767901157396439</v>
+        <v>0.9778679906436047</v>
       </c>
       <c r="P10">
-        <v>0.0071189754494588</v>
+        <v>0.9720876233529945</v>
       </c>
       <c r="Q10">
-        <v>0.02115117537022222</v>
+        <v>2.69494114032</v>
       </c>
       <c r="R10">
-        <v>0.190360578332</v>
+        <v>16.16964684192</v>
       </c>
       <c r="S10">
-        <v>3.092857680950397E-05</v>
+        <v>0.01506782794560901</v>
       </c>
       <c r="T10">
-        <v>4.895680582579126E-05</v>
+        <v>0.01662439486974492</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1169053333333333</v>
+        <v>4.505141</v>
       </c>
       <c r="H11">
-        <v>0.350716</v>
+        <v>9.010282</v>
       </c>
       <c r="I11">
-        <v>0.006486832631067552</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J11">
-        <v>0.006876945449996328</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.06252866666666666</v>
+        <v>0.09215</v>
       </c>
       <c r="N11">
-        <v>0.187586</v>
+        <v>0.1843</v>
       </c>
       <c r="O11">
-        <v>0.001647806569754003</v>
+        <v>0.01023932159503481</v>
       </c>
       <c r="P11">
-        <v>0.002460347672547249</v>
+        <v>0.01017879497979401</v>
       </c>
       <c r="Q11">
-        <v>0.007309934619555554</v>
+        <v>0.41514874315</v>
       </c>
       <c r="R11">
-        <v>0.06578941157599999</v>
+        <v>1.6605949726</v>
       </c>
       <c r="S11">
-        <v>1.068904542636776E-05</v>
+        <v>0.002321160095124473</v>
       </c>
       <c r="T11">
-        <v>1.691967673213286E-05</v>
+        <v>0.001707296814402016</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,60 +1163,60 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.0670265</v>
+        <v>4.505141</v>
       </c>
       <c r="H12">
-        <v>6.134053</v>
+        <v>9.010282</v>
       </c>
       <c r="I12">
-        <v>0.1701828908337422</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J12">
-        <v>0.1202783673068418</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.4030655</v>
+        <v>0.1070296666666667</v>
       </c>
       <c r="N12">
-        <v>0.8061309999999999</v>
+        <v>0.321089</v>
       </c>
       <c r="O12">
-        <v>0.01062191174620465</v>
+        <v>0.01189268776136058</v>
       </c>
       <c r="P12">
-        <v>0.01057308397011603</v>
+        <v>0.01773358166721151</v>
       </c>
       <c r="Q12">
-        <v>1.23621256973575</v>
+        <v>0.4821837395163334</v>
       </c>
       <c r="R12">
-        <v>4.944850278942999</v>
+        <v>2.893102437098</v>
       </c>
       <c r="S12">
-        <v>0.00180766764714999</v>
+        <v>0.002695963008802395</v>
       </c>
       <c r="T12">
-        <v>0.001271713277323697</v>
+        <v>0.002974466776123326</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,140 +1225,140 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.0670265</v>
+        <v>4.505141</v>
       </c>
       <c r="H13">
-        <v>6.134053</v>
+        <v>9.010282</v>
       </c>
       <c r="I13">
-        <v>0.1701828908337422</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J13">
-        <v>0.1202783673068418</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1070296666666667</v>
+        <v>8.80044</v>
       </c>
       <c r="N13">
-        <v>0.321089</v>
+        <v>17.60088</v>
       </c>
       <c r="O13">
-        <v>0.002820533321653764</v>
+        <v>0.9778679906436047</v>
       </c>
       <c r="P13">
-        <v>0.004211351453895939</v>
+        <v>0.9720876233529945</v>
       </c>
       <c r="Q13">
-        <v>0.3282628239528333</v>
+        <v>39.64722306204</v>
       </c>
       <c r="R13">
-        <v>1.969576943717</v>
+        <v>158.58889224816</v>
       </c>
       <c r="S13">
-        <v>0.0004800065143719347</v>
+        <v>0.2216736858115814</v>
       </c>
       <c r="T13">
-        <v>0.000506534477029898</v>
+        <v>0.1630489764225294</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>3.0670265</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H14">
-        <v>6.134053</v>
+        <v>0.391799</v>
       </c>
       <c r="I14">
-        <v>0.1701828908337422</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J14">
-        <v>0.1202783673068418</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>37.1930565</v>
+        <v>0.09215</v>
       </c>
       <c r="N14">
-        <v>74.38611300000001</v>
+        <v>0.1843</v>
       </c>
       <c r="O14">
-        <v>0.9801418472049912</v>
+        <v>0.01023932159503481</v>
       </c>
       <c r="P14">
-        <v>0.9756362414539821</v>
+        <v>0.01017879497979401</v>
       </c>
       <c r="Q14">
-        <v>114.0720899014973</v>
+        <v>0.01203475928333333</v>
       </c>
       <c r="R14">
-        <v>456.2883596059891</v>
+        <v>0.0722085557</v>
       </c>
       <c r="S14">
-        <v>0.1668033729844694</v>
+        <v>6.728817914982561E-05</v>
       </c>
       <c r="T14">
-        <v>0.1173479342074687</v>
+        <v>7.423931732501775E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>3.0670265</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H15">
-        <v>6.134053</v>
+        <v>0.391799</v>
       </c>
       <c r="I15">
-        <v>0.1701828908337422</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J15">
-        <v>0.1202783673068418</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,184 +1367,184 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.1809256666666667</v>
+        <v>0.1070296666666667</v>
       </c>
       <c r="N15">
-        <v>0.5427770000000001</v>
+        <v>0.321089</v>
       </c>
       <c r="O15">
-        <v>0.004767901157396439</v>
+        <v>0.01189268776136058</v>
       </c>
       <c r="P15">
-        <v>0.0071189754494588</v>
+        <v>0.01773358166721151</v>
       </c>
       <c r="Q15">
-        <v>0.5549038141968333</v>
+        <v>0.01397803879011111</v>
       </c>
       <c r="R15">
-        <v>3.329422885181</v>
+        <v>0.125802349111</v>
       </c>
       <c r="S15">
-        <v>0.0008114152021752711</v>
+        <v>7.81533519806054E-05</v>
       </c>
       <c r="T15">
-        <v>0.0008562587439583947</v>
+        <v>0.0001293403589830311</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>3.0670265</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H16">
-        <v>6.134053</v>
+        <v>0.391799</v>
       </c>
       <c r="I16">
-        <v>0.1701828908337422</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J16">
-        <v>0.1202783673068418</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.06252866666666666</v>
+        <v>8.80044</v>
       </c>
       <c r="N16">
-        <v>0.187586</v>
+        <v>17.60088</v>
       </c>
       <c r="O16">
-        <v>0.001647806569754003</v>
+        <v>0.9778679906436047</v>
       </c>
       <c r="P16">
-        <v>0.002460347672547249</v>
+        <v>0.9720876233529945</v>
       </c>
       <c r="Q16">
-        <v>0.1917770776763333</v>
+        <v>1.14933453052</v>
       </c>
       <c r="R16">
-        <v>1.150662466058</v>
+        <v>6.89600718312</v>
       </c>
       <c r="S16">
-        <v>0.0002804284855755686</v>
+        <v>0.006426105082119277</v>
       </c>
       <c r="T16">
-        <v>0.0002959266010611713</v>
+        <v>0.007089947452629182</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.8611266666666667</v>
+        <v>0.115013</v>
       </c>
       <c r="H17">
-        <v>2.58338</v>
+        <v>0.345039</v>
       </c>
       <c r="I17">
-        <v>0.04778211910048955</v>
+        <v>0.005787252830887944</v>
       </c>
       <c r="J17">
-        <v>0.05065569673642353</v>
+        <v>0.006423067202931537</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.4030655</v>
+        <v>0.09215</v>
       </c>
       <c r="N17">
-        <v>0.8061309999999999</v>
+        <v>0.1843</v>
       </c>
       <c r="O17">
-        <v>0.01062191174620465</v>
+        <v>0.01023932159503481</v>
       </c>
       <c r="P17">
-        <v>0.01057308397011603</v>
+        <v>0.01017879497979401</v>
       </c>
       <c r="Q17">
-        <v>0.3470904504633333</v>
+        <v>0.01059844795</v>
       </c>
       <c r="R17">
-        <v>2.08254270278</v>
+        <v>0.0635906877</v>
       </c>
       <c r="S17">
-        <v>0.0005075374521320397</v>
+        <v>5.925754288723727E-05</v>
       </c>
       <c r="T17">
-        <v>0.0005355869351589387</v>
+        <v>6.537908420007912E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.8611266666666667</v>
+        <v>0.115013</v>
       </c>
       <c r="H18">
-        <v>2.58338</v>
+        <v>0.345039</v>
       </c>
       <c r="I18">
-        <v>0.04778211910048955</v>
+        <v>0.005787252830887944</v>
       </c>
       <c r="J18">
-        <v>0.05065569673642353</v>
+        <v>0.006423067202931537</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1559,54 +1559,54 @@
         <v>0.321089</v>
       </c>
       <c r="O18">
-        <v>0.002820533321653764</v>
+        <v>0.01189268776136058</v>
       </c>
       <c r="P18">
-        <v>0.004211351453895939</v>
+        <v>0.01773358166721151</v>
       </c>
       <c r="Q18">
-        <v>0.09216610009111112</v>
+        <v>0.01230980305233333</v>
       </c>
       <c r="R18">
-        <v>0.82949490082</v>
+        <v>0.110788227471</v>
       </c>
       <c r="S18">
-        <v>0.0001347710591021596</v>
+        <v>6.882599091380046E-05</v>
       </c>
       <c r="T18">
-        <v>0.000213328942099049</v>
+        <v>0.0001139039867971742</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.8611266666666667</v>
+        <v>0.115013</v>
       </c>
       <c r="H19">
-        <v>2.58338</v>
+        <v>0.345039</v>
       </c>
       <c r="I19">
-        <v>0.04778211910048955</v>
+        <v>0.005787252830887944</v>
       </c>
       <c r="J19">
-        <v>0.05065569673642353</v>
+        <v>0.006423067202931537</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,462 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>37.1930565</v>
+        <v>8.80044</v>
       </c>
       <c r="N19">
-        <v>74.38611300000001</v>
+        <v>17.60088</v>
       </c>
       <c r="O19">
-        <v>0.9801418472049912</v>
+        <v>0.9778679906436047</v>
       </c>
       <c r="P19">
-        <v>0.9756362414539821</v>
+        <v>0.9720876233529945</v>
       </c>
       <c r="Q19">
-        <v>32.02793276699001</v>
+        <v>1.01216500572</v>
       </c>
       <c r="R19">
-        <v>192.16759660194</v>
+        <v>6.07299003432</v>
       </c>
       <c r="S19">
-        <v>0.04683325447852272</v>
+        <v>0.005659169297086908</v>
       </c>
       <c r="T19">
-        <v>0.04942153357215701</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.8611266666666667</v>
-      </c>
-      <c r="H20">
-        <v>2.58338</v>
-      </c>
-      <c r="I20">
-        <v>0.04778211910048955</v>
-      </c>
-      <c r="J20">
-        <v>0.05065569673642353</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>0.1809256666666667</v>
-      </c>
-      <c r="N20">
-        <v>0.5427770000000001</v>
-      </c>
-      <c r="O20">
-        <v>0.004767901157396439</v>
-      </c>
-      <c r="P20">
-        <v>0.0071189754494588</v>
-      </c>
-      <c r="Q20">
-        <v>0.1557999162511111</v>
-      </c>
-      <c r="R20">
-        <v>1.40219924626</v>
-      </c>
-      <c r="S20">
-        <v>0.0002278204209620786</v>
-      </c>
-      <c r="T20">
-        <v>0.0003606166614418294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.8611266666666667</v>
-      </c>
-      <c r="H21">
-        <v>2.58338</v>
-      </c>
-      <c r="I21">
-        <v>0.04778211910048955</v>
-      </c>
-      <c r="J21">
-        <v>0.05065569673642353</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.06252866666666666</v>
-      </c>
-      <c r="N21">
-        <v>0.187586</v>
-      </c>
-      <c r="O21">
-        <v>0.001647806569754003</v>
-      </c>
-      <c r="P21">
-        <v>0.002460347672547249</v>
-      </c>
-      <c r="Q21">
-        <v>0.05384510229777778</v>
-      </c>
-      <c r="R21">
-        <v>0.48460592068</v>
-      </c>
-      <c r="S21">
-        <v>7.873568977055491E-05</v>
-      </c>
-      <c r="T21">
-        <v>0.0001246306255667189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H22">
-        <v>1.671026</v>
-      </c>
-      <c r="I22">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J22">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.4030655</v>
-      </c>
-      <c r="N22">
-        <v>0.8061309999999999</v>
-      </c>
-      <c r="O22">
-        <v>0.01062191174620465</v>
-      </c>
-      <c r="P22">
-        <v>0.01057308397011603</v>
-      </c>
-      <c r="Q22">
-        <v>0.2245109767343333</v>
-      </c>
-      <c r="R22">
-        <v>1.347065860406</v>
-      </c>
-      <c r="S22">
-        <v>0.0003282940482957961</v>
-      </c>
-      <c r="T22">
-        <v>0.0003464374942559363</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H23">
-        <v>1.671026</v>
-      </c>
-      <c r="I23">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J23">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M23">
-        <v>0.1070296666666667</v>
-      </c>
-      <c r="N23">
-        <v>0.321089</v>
-      </c>
-      <c r="O23">
-        <v>0.002820533321653764</v>
-      </c>
-      <c r="P23">
-        <v>0.004211351453895939</v>
-      </c>
-      <c r="Q23">
-        <v>0.05961645192377778</v>
-      </c>
-      <c r="R23">
-        <v>0.536548067314</v>
-      </c>
-      <c r="S23">
-        <v>8.717491960425694E-05</v>
-      </c>
-      <c r="T23">
-        <v>0.0001379890719909597</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H24">
-        <v>1.671026</v>
-      </c>
-      <c r="I24">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J24">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>37.1930565</v>
-      </c>
-      <c r="N24">
-        <v>74.38611300000001</v>
-      </c>
-      <c r="O24">
-        <v>0.9801418472049912</v>
-      </c>
-      <c r="P24">
-        <v>0.9756362414539821</v>
-      </c>
-      <c r="Q24">
-        <v>20.716854810323</v>
-      </c>
-      <c r="R24">
-        <v>124.301128861938</v>
-      </c>
-      <c r="S24">
-        <v>0.03029348601376023</v>
-      </c>
-      <c r="T24">
-        <v>0.0319676809292273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H25">
-        <v>1.671026</v>
-      </c>
-      <c r="I25">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J25">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.1809256666666667</v>
-      </c>
-      <c r="N25">
-        <v>0.5427770000000001</v>
-      </c>
-      <c r="O25">
-        <v>0.004767901157396439</v>
-      </c>
-      <c r="P25">
-        <v>0.0071189754494588</v>
-      </c>
-      <c r="Q25">
-        <v>0.1007771643557778</v>
-      </c>
-      <c r="R25">
-        <v>0.906994479202</v>
-      </c>
-      <c r="S25">
-        <v>0.0001473626979997439</v>
-      </c>
-      <c r="T25">
-        <v>0.0002332602316741998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H26">
-        <v>1.671026</v>
-      </c>
-      <c r="I26">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J26">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.06252866666666666</v>
-      </c>
-      <c r="N26">
-        <v>0.187586</v>
-      </c>
-      <c r="O26">
-        <v>0.001647806569754003</v>
-      </c>
-      <c r="P26">
-        <v>0.002460347672547249</v>
-      </c>
-      <c r="Q26">
-        <v>0.03482900924844444</v>
-      </c>
-      <c r="R26">
-        <v>0.313461083236</v>
-      </c>
-      <c r="S26">
-        <v>5.092916440265515E-05</v>
-      </c>
-      <c r="T26">
-        <v>8.061571109099399E-05</v>
+        <v>0.006243784131934284</v>
       </c>
     </row>
   </sheetData>
